--- a/trunk/Quality_Assurance/Code review/BSN Review/BSN Bug.xlsx
+++ b/trunk/Quality_Assurance/Code review/BSN Review/BSN Bug.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="12375" windowHeight="6405" activeTab="2"/>
+    <workbookView xWindow="-390" yWindow="-30" windowWidth="10365" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="BSNBug" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="74">
   <si>
     <t>Module</t>
   </si>
@@ -33,12 +33,6 @@
     <t>File</t>
   </si>
   <si>
-    <t>Index view</t>
-  </si>
-  <si>
-    <t>List need to be ordered by ID</t>
-  </si>
-  <si>
     <t>aaaaaaammmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
   </si>
   <si>
@@ -51,9 +45,6 @@
     <t>Edit</t>
   </si>
   <si>
-    <t>Không có hiệu lực (Edit -&gt; Save, về Index nhưng giá trị Line name vẫn như cũ)</t>
-  </si>
-  <si>
     <t>Testing</t>
   </si>
   <si>
@@ -69,9 +60,6 @@
     <t>Khi nhấn save mà có lỗi xảy ra, thì thông tin ở các field vẫn dc giữ nguyên hay bị xóa  đi?</t>
   </si>
   <si>
-    <t>Textbox for [Rank] field does not work correctly</t>
-  </si>
-  <si>
     <t>Add + Edit</t>
   </si>
   <si>
@@ -84,9 +72,6 @@
     <t>BSN Scale</t>
   </si>
   <si>
-    <t>Cannot add scale</t>
-  </si>
-  <si>
     <t>BSN Scale Criteria</t>
   </si>
   <si>
@@ -99,9 +84,6 @@
     <t>BSN Scale score</t>
   </si>
   <si>
-    <t>Cannot run correctly</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -165,19 +147,127 @@
     <t>Testing/Logical</t>
   </si>
   <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>Thừa field [ID] so với DDD</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>All file</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>SelectIndustryByID(Sring ID)
+- Trong DD, ID vẫn đang là kiểu INT</t>
+  </si>
+  <si>
+    <t>Phần summary cần viết chi tiết hơn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All ADD view </t>
+  </si>
+  <si>
+    <t>All INDEX view file</t>
+  </si>
+  <si>
+    <t>All EDIT view</t>
+  </si>
+  <si>
+    <t>[Refered from C4]
+Button Save:
+Hoặc sửa lại DD thành Save, hoặc sửa lại code thành Add</t>
+  </si>
+  <si>
+    <t>[Refered from C3]
+Trong DD, sửa "Create button" thành "Add new link"</t>
+  </si>
+  <si>
+    <t>List need to be ordered by ID
+Refer to folder \Quality_Assurance\Code review\BSN Review\BSN Capture
+BSNInduxtry-Index.PNG</t>
+  </si>
+  <si>
     <t>Controller</t>
   </si>
   <si>
-    <t>Review</t>
-  </si>
-  <si>
-    <t>Optional</t>
-  </si>
-  <si>
-    <t>Thừa field [ID] so với DDD</t>
-  </si>
-  <si>
-    <t>Phần summary chưa chi tiết như DDD</t>
+    <t>DD thiếu hàm HTTP-POST Index()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Không có hiệu lực (Edit -&gt; Save, về Index nhưng giá trị Line name vẫn như cũ)
+Refer evident
+- BSNLine-Edit-before.PNG
+- BSNLine-Edit-after.PNG
+( \Quality_Assurance\Code review\BSN Review\BSN Capture)
+</t>
+  </si>
+  <si>
+    <t>Textbox for [Rank] field does not work correctly
+If using SQL management studio to add a new row, we can add new row with Rank value is [2], but using FBD web application, Rank field with value [2] is being declared off
+Refer evident:
+- BSNRanks-Add.PNG
+- BSNRanks-Add-SQL.PNG
+in folder:
+\Quality_Assurance\Code review\BSN Review\BSN Capture</t>
+  </si>
+  <si>
+    <t>DD Correction, DD mapping</t>
+  </si>
+  <si>
+    <t>Base on Requirement BSN019, there's no Adding and Deleting feature for BSN Ranking Structure
+-&gt; Xóa method Delete trong DD
+-&gt; Xóa method Add and Delete trong code</t>
+  </si>
+  <si>
+    <t>Add view</t>
+  </si>
+  <si>
+    <t>Add new Link and Delete link should be deleted</t>
+  </si>
+  <si>
+    <t>-&gt; Should be deleted because of add feature is not supported</t>
+  </si>
+  <si>
+    <t>Cannot add scale
+If using SQL management studio to add a new row, we can add new row with Scale value is [Scale 1123], but using FBD web application, Scale field with value [Scale 1123] is being declared off
+refer evident:
+- BSNScale-add.PNG
+- BSNScale-add-SQL.PNG</t>
+  </si>
+  <si>
+    <t>Trong code thừa 2 methods Add và [Http-Post] Add
+-&gt; delete 2 methods Add</t>
+  </si>
+  <si>
+    <t>[Refered from C6]
+Button Save:
+Trong DD có thể bị để là Edit button -&gt; sửa lại DD thành Save button</t>
+  </si>
+  <si>
+    <t>Cannot run correctly
+Refer evident 
+- BSNScaleScore-add.PNG
+to see error message</t>
+  </si>
+  <si>
+    <t>Update lại DD theo code</t>
+  </si>
+  <si>
+    <t>List scale score:
+Vì list này có chút khác biệt với list view thông thường (VD có thể add, edit ngay trên view -&gt; add thêm description cho List)</t>
+  </si>
+  <si>
+    <t>Add, Edit view</t>
+  </si>
+  <si>
+    <t>Xóa 2 sheet này trong DD</t>
   </si>
 </sst>
 </file>
@@ -228,7 +318,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,6 +343,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -351,7 +447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -380,6 +476,18 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -392,11 +500,20 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -692,571 +809,417 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="36" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="36" customHeight="1">
+      <c r="A2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="36" customHeight="1">
+      <c r="A3" s="13"/>
+      <c r="B3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="60">
+      <c r="A4" s="13"/>
+      <c r="B4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45">
+      <c r="A5" s="13"/>
+      <c r="B5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="36" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="60">
+      <c r="A6" s="13"/>
+      <c r="B6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="36" customHeight="1">
+      <c r="A7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="75">
+      <c r="A8" s="13"/>
+      <c r="B8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="60">
+      <c r="A9" s="13"/>
+      <c r="B9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="str">
+        <f>C4</f>
+        <v>[Refered from C4]
+Button Save:
+Hoặc sửa lại DD thành Save, hoặc sửa lại code thành Add</v>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f>D4</f>
+        <v>DD mapping</v>
+      </c>
+      <c r="E9" s="2" t="str">
+        <f>E4</f>
+        <v>Review</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="60">
+      <c r="A10" s="13"/>
+      <c r="B10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="str">
+        <f>C6</f>
+        <v>[Refered from C6]
+Button Save:
+Trong DD có thể bị để là Edit button -&gt; sửa lại DD thành Save button</v>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f t="shared" ref="D10:E10" si="0">D6</f>
+        <v>DD mapping</v>
+      </c>
+      <c r="E10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Review</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15">
+      <c r="A11" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B11" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="135">
+      <c r="A12" s="18"/>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="195">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="36" customHeight="1">
-      <c r="B3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="36" customHeight="1">
-      <c r="D4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="36" customHeight="1">
-      <c r="C5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="36" customHeight="1">
+      <c r="A14" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="36" customHeight="1">
+      <c r="A15" s="18"/>
+      <c r="B15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="36" customHeight="1">
-      <c r="D6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="36" customHeight="1">
-      <c r="D7" s="2" t="s">
+      <c r="E15" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="90">
+      <c r="A16" s="18"/>
+      <c r="B16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="36" customHeight="1">
+      <c r="A17" s="18"/>
+      <c r="B17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="36" customHeight="1">
+      <c r="A18" s="18"/>
+      <c r="B18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="150">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="36" customHeight="1">
-      <c r="D8" s="2" t="s">
+      <c r="E19" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="45">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="36" customHeight="1">
-      <c r="D9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="36" customHeight="1">
-      <c r="A13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="2" t="s">
+    </row>
+    <row r="21" spans="1:5" ht="60">
+      <c r="A21" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="36" customHeight="1">
-      <c r="D14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="36" customHeight="1">
-      <c r="D15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="36" customHeight="1">
-      <c r="D16" s="2" t="s">
+    </row>
+    <row r="22" spans="1:5" ht="75">
+      <c r="A22" s="18"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="36" customHeight="1">
-      <c r="D17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="36" customHeight="1">
-      <c r="D18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="36" customHeight="1">
-      <c r="D19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="36" customHeight="1">
-      <c r="D20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="36" customHeight="1">
-      <c r="A22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="E22" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="36" customHeight="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30">
+      <c r="A23" s="18"/>
       <c r="B23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>73</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="36" customHeight="1">
+      <c r="A24" s="18"/>
+      <c r="B24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D24" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="36" customHeight="1">
-      <c r="D25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="36" customHeight="1">
-      <c r="D26" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="36" customHeight="1">
-      <c r="D27" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="36" customHeight="1">
-      <c r="D28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="36" customHeight="1">
-      <c r="D29" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="36" customHeight="1">
-      <c r="D30" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="36" customHeight="1">
-      <c r="A32" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="36" customHeight="1">
-      <c r="D33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="36" customHeight="1">
-      <c r="D34" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="36" customHeight="1">
-      <c r="D35" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="36" customHeight="1">
-      <c r="D36" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="36" customHeight="1">
-      <c r="D37" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="36" customHeight="1">
-      <c r="D38" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="36" customHeight="1">
-      <c r="D39" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="36" customHeight="1">
-      <c r="A43" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="36" customHeight="1">
-      <c r="D44" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="36" customHeight="1">
-      <c r="D45" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="36" customHeight="1">
-      <c r="D46" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="36" customHeight="1">
-      <c r="D47" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="36" customHeight="1">
-      <c r="D48" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="36" customHeight="1">
-      <c r="D49" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="36" customHeight="1">
-      <c r="D50" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="36" customHeight="1">
-      <c r="A54" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="36" customHeight="1">
-      <c r="D55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="36" customHeight="1">
-      <c r="D56" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="36" customHeight="1">
-      <c r="D57" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="36" customHeight="1">
-      <c r="D58" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="36" customHeight="1">
-      <c r="D59" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="36" customHeight="1">
-      <c r="D60" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="36" customHeight="1">
-      <c r="D61" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="36" customHeight="1">
-      <c r="A64" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65" spans="4:5" ht="36" customHeight="1">
-      <c r="D65" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="66" spans="4:5" ht="36" customHeight="1">
-      <c r="D66" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="67" spans="4:5" ht="36" customHeight="1">
-      <c r="D67" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="68" spans="4:5" ht="36" customHeight="1">
-      <c r="D68" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="69" spans="4:5" ht="36" customHeight="1">
-      <c r="D69" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="70" spans="4:5" ht="36" customHeight="1">
-      <c r="D70" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="71" spans="4:5" ht="36" customHeight="1">
-      <c r="D71" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A14:A18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
@@ -1274,7 +1237,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1">
         <f>LEN(A1)</f>
@@ -1291,8 +1254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1303,24 +1266,24 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" thickBot="1">
       <c r="A1" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="63.75" hidden="1" thickBot="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="48" hidden="1" thickBot="1">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="48" thickBot="1">
@@ -1328,10 +1291,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>33</v>
+        <v>26</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="48" thickBot="1">
@@ -1339,35 +1302,35 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75">
-      <c r="A5" s="10">
+      <c r="A5" s="14">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>36</v>
+      <c r="B5" s="16" t="s">
+        <v>30</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A6" s="11"/>
-      <c r="B6" s="13"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="33.75" customHeight="1">
-      <c r="A7" s="11"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="48" thickBot="1">
@@ -1375,10 +1338,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="63.75" thickBot="1">
@@ -1386,10 +1349,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="32.25" thickBot="1">
@@ -1397,10 +1360,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="48" thickBot="1">
@@ -1408,10 +1371,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
